--- a/ContosoFaturas/DadosContoso.xlsx
+++ b/ContosoFaturas/DadosContoso.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Material\excel file Constoso Invoiced\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3998B1B5-713F-4E32-8996-A3349ED22346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7492744E-9B7A-4EE6-9EDE-69C91C7DF162}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Account Name</t>
   </si>
@@ -58,12 +52,6 @@
   </si>
   <si>
     <t>p.gupta@tailspinCups.com</t>
-  </si>
-  <si>
-    <t>WingTip Cups</t>
-  </si>
-  <si>
-    <t>b.friday@wingtipCups.com</t>
   </si>
   <si>
     <t>Paid</t>
@@ -84,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
@@ -457,18 +445,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D89CFFD-FBC5-4EC0-82F7-1934471E80D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +469,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -493,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -510,7 +498,7 @@
         <v>4232.16</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -527,7 +515,7 @@
         <v>2455</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -544,7 +532,7 @@
         <v>7458.98</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -561,42 +549,20 @@
         <v>5237.26</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>45069</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2230.9899999999898</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>45070</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1253.78</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -605,16 +571,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0be864d4-2e1e-4147-b554-953cb37bfd3b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -883,23 +845,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0be864d4-2e1e-4147-b554-953cb37bfd3b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0712BE9-C95C-466F-A55D-8E3EA74FB658}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEBBDDC1-2D7E-4EB9-AC8F-C6AF957DFDB5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="b2855774-7864-472c-b53f-a1c9f38f1d59"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="0be864d4-2e1e-4147-b554-953cb37bfd3b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -926,9 +887,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEBBDDC1-2D7E-4EB9-AC8F-C6AF957DFDB5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0712BE9-C95C-466F-A55D-8E3EA74FB658}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="b2855774-7864-472c-b53f-a1c9f38f1d59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="0be864d4-2e1e-4147-b554-953cb37bfd3b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>